--- a/SO SACH - LA/SO SACH/2016/141 - 341 - 16.xlsx
+++ b/SO SACH - LA/SO SACH/2016/141 - 341 - 16.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" tabRatio="858"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="15135" windowHeight="9240" tabRatio="858"/>
   </bookViews>
   <sheets>
     <sheet name="341" sheetId="20" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <definedName name="Loai4">OFFSET('TH-341'!$E$5,,,COUNTA('TH-341'!$E$5:$E$40104))</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'341'!$A$1:$O$8</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2123,6 +2123,27 @@
     <xf numFmtId="0" fontId="40" fillId="21" borderId="26" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2132,30 +2153,27 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" xfId="54" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2168,60 +2186,45 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" xfId="54" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="21" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="26" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="26" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="21" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="26" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="26" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2232,9 +2235,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2719,10 +2719,10 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="9" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="159">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B9" s="160" t="s">
         <v>86</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="10" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="159">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B10" s="160" t="s">
         <v>87</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="11" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="159">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B11" s="237" t="s">
         <v>89</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="12" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="159">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B12" s="237" t="s">
         <v>90</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="13" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="159">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B13" s="223" t="s">
         <v>91</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="14" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="159">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B14" s="223" t="s">
         <v>92</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="15" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="159">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B15" s="223" t="s">
         <v>93</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="16" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="159">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B16" s="237" t="s">
         <v>94</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="17" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="159">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B17" s="160" t="s">
         <v>88</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="18" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="159">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B18" s="223" t="s">
         <v>95</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="19" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="159">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B19" s="223" t="s">
         <v>96</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="20" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="159">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B20" s="223" t="s">
         <v>97</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="21" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="159">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B21" s="166" t="s">
         <v>98</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="22" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="159">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B22" s="160" t="s">
         <v>99</v>
@@ -4385,51 +4385,51 @@
       </c>
       <c r="C36" s="168"/>
       <c r="D36" s="169">
-        <f>SUM(D5:D35)</f>
+        <f t="shared" ref="D36:O36" si="20">SUM(D5:D35)</f>
         <v>0</v>
       </c>
       <c r="E36" s="170">
-        <f>SUM(E5:E35)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F36" s="169">
-        <f>SUM(F5:F35)</f>
+        <f t="shared" si="20"/>
         <v>1043169.73</v>
       </c>
       <c r="G36" s="170">
-        <f>SUM(G5:G35)</f>
+        <f t="shared" si="20"/>
         <v>23372042379</v>
       </c>
       <c r="H36" s="169">
-        <f ca="1">SUM(H5:H35)</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="I36" s="170">
-        <f ca="1">SUM(I5:I35)</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="J36" s="169">
-        <f ca="1">SUM(J5:J35)</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="K36" s="170">
-        <f ca="1">SUM(K5:K35)</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L36" s="169">
-        <f ca="1">SUM(L5:L35)</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M36" s="170">
-        <f ca="1">SUM(M5:M35)</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="N36" s="169">
-        <f ca="1">SUM(N5:N35)</f>
+        <f t="shared" ca="1" si="20"/>
         <v>1043169.73</v>
       </c>
       <c r="O36" s="170">
-        <f ca="1">SUM(O5:O35)</f>
+        <f t="shared" ca="1" si="20"/>
         <v>23372042379</v>
       </c>
     </row>
@@ -4454,12 +4454,12 @@
       </c>
       <c r="H40" s="242"/>
       <c r="I40" s="242">
-        <f t="shared" ref="I40:K40" ca="1" si="20">I36-I38</f>
+        <f t="shared" ref="I40:K40" ca="1" si="21">I36-I38</f>
         <v>-42657706600</v>
       </c>
       <c r="J40" s="242"/>
       <c r="K40" s="242">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>-42912698791</v>
       </c>
     </row>
@@ -4520,61 +4520,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="178" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="278" t="s">
+      <c r="A1" s="285" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="281" t="s">
+      <c r="B1" s="278" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="282"/>
-      <c r="D1" s="278" t="s">
+      <c r="C1" s="280"/>
+      <c r="D1" s="285" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="278" t="s">
+      <c r="E1" s="285" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="278" t="s">
+      <c r="F1" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="278" t="s">
+      <c r="G1" s="285" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="281" t="s">
+      <c r="H1" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="283"/>
-      <c r="J1" s="283"/>
-      <c r="K1" s="282"/>
+      <c r="I1" s="279"/>
+      <c r="J1" s="279"/>
+      <c r="K1" s="280"/>
     </row>
     <row r="2" spans="1:11" s="178" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="279"/>
-      <c r="B2" s="284" t="s">
+      <c r="A2" s="286"/>
+      <c r="B2" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="284" t="s">
+      <c r="C2" s="281" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="286" t="s">
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286"/>
+      <c r="H2" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="287"/>
-      <c r="J2" s="286" t="s">
+      <c r="I2" s="284"/>
+      <c r="J2" s="283" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="287"/>
+      <c r="K2" s="284"/>
     </row>
     <row r="3" spans="1:11" s="178" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="280"/>
-      <c r="B3" s="285"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
-      <c r="G3" s="280"/>
+      <c r="A3" s="287"/>
+      <c r="B3" s="282"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="287"/>
+      <c r="E3" s="287"/>
+      <c r="F3" s="287"/>
+      <c r="G3" s="287"/>
       <c r="H3" s="179" t="s">
         <v>61</v>
       </c>
@@ -6900,17 +6900,17 @@
   </sheetData>
   <autoFilter ref="A4:K108"/>
   <mergeCells count="11">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42:E47 E5:E40 E75:E76 E78:E80 E66:E73 E63:E64 E52:E61 E82:E108">
@@ -6960,13 +6960,13 @@
       <c r="C1" s="175"/>
       <c r="H1" s="175"/>
       <c r="I1" s="175"/>
-      <c r="J1" s="289" t="s">
+      <c r="J1" s="295" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="289"/>
-      <c r="L1" s="289"/>
-      <c r="M1" s="289"/>
-      <c r="N1" s="289"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
+      <c r="N1" s="295"/>
     </row>
     <row r="2" spans="1:14" s="176" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="174" t="s">
@@ -6976,13 +6976,13 @@
       <c r="C2" s="217"/>
       <c r="H2" s="177"/>
       <c r="I2" s="177"/>
-      <c r="J2" s="290" t="s">
+      <c r="J2" s="296" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="290"/>
-      <c r="N2" s="290"/>
+      <c r="K2" s="296"/>
+      <c r="L2" s="296"/>
+      <c r="M2" s="296"/>
+      <c r="N2" s="296"/>
     </row>
     <row r="3" spans="1:14" s="176" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="217"/>
@@ -6990,11 +6990,11 @@
       <c r="C3" s="217"/>
       <c r="H3" s="177"/>
       <c r="I3" s="177"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="290"/>
-      <c r="N3" s="290"/>
+      <c r="J3" s="296"/>
+      <c r="K3" s="296"/>
+      <c r="L3" s="296"/>
+      <c r="M3" s="296"/>
+      <c r="N3" s="296"/>
     </row>
     <row r="4" spans="1:14" s="176" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="217"/>
@@ -7009,77 +7009,77 @@
       <c r="N4" s="218"/>
     </row>
     <row r="5" spans="1:14" s="178" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="291" t="s">
+      <c r="A5" s="297" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="292"/>
-      <c r="C5" s="292"/>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="292"/>
-      <c r="J5" s="292"/>
-      <c r="K5" s="292"/>
-      <c r="L5" s="292"/>
-      <c r="M5" s="292"/>
-      <c r="N5" s="292"/>
+      <c r="B5" s="298"/>
+      <c r="C5" s="298"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="298"/>
+      <c r="H5" s="298"/>
+      <c r="I5" s="298"/>
+      <c r="J5" s="298"/>
+      <c r="K5" s="298"/>
+      <c r="L5" s="298"/>
+      <c r="M5" s="298"/>
+      <c r="N5" s="298"/>
     </row>
     <row r="6" spans="1:14" s="178" customFormat="1">
-      <c r="A6" s="288" t="s">
+      <c r="A6" s="289" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="288"/>
-      <c r="C6" s="288"/>
-      <c r="D6" s="288"/>
-      <c r="E6" s="288"/>
-      <c r="F6" s="288"/>
-      <c r="G6" s="288"/>
-      <c r="H6" s="288"/>
-      <c r="I6" s="288"/>
-      <c r="J6" s="288"/>
-      <c r="K6" s="288"/>
-      <c r="L6" s="288"/>
-      <c r="M6" s="288"/>
-      <c r="N6" s="288"/>
+      <c r="B6" s="289"/>
+      <c r="C6" s="289"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="289"/>
+      <c r="I6" s="289"/>
+      <c r="J6" s="289"/>
+      <c r="K6" s="289"/>
+      <c r="L6" s="289"/>
+      <c r="M6" s="289"/>
+      <c r="N6" s="289"/>
     </row>
     <row r="7" spans="1:14" s="178" customFormat="1">
-      <c r="A7" s="288" t="s">
+      <c r="A7" s="289" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="288"/>
-      <c r="C7" s="288"/>
-      <c r="D7" s="288"/>
-      <c r="E7" s="288"/>
-      <c r="F7" s="288"/>
-      <c r="G7" s="288"/>
-      <c r="H7" s="288"/>
-      <c r="I7" s="288"/>
-      <c r="J7" s="288"/>
-      <c r="K7" s="288"/>
-      <c r="L7" s="288"/>
-      <c r="M7" s="288"/>
-      <c r="N7" s="288"/>
+      <c r="B7" s="289"/>
+      <c r="C7" s="289"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="289"/>
+      <c r="J7" s="289"/>
+      <c r="K7" s="289"/>
+      <c r="L7" s="289"/>
+      <c r="M7" s="289"/>
+      <c r="N7" s="289"/>
     </row>
     <row r="8" spans="1:14" s="178" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="288" t="str">
+      <c r="A8" s="289" t="str">
         <f>IF(MID($H$9,4,4)="1015","Đối tượng cho vay: NH Eximbank CN Q11","Đối tượng cho vay: NH Eximbank CN Q4")</f>
         <v>Đối tượng cho vay: NH Eximbank CN Q11</v>
       </c>
-      <c r="B8" s="288"/>
-      <c r="C8" s="288"/>
-      <c r="D8" s="288"/>
-      <c r="E8" s="288"/>
-      <c r="F8" s="288"/>
-      <c r="G8" s="288"/>
-      <c r="H8" s="288"/>
-      <c r="I8" s="288"/>
-      <c r="J8" s="288"/>
-      <c r="K8" s="288"/>
-      <c r="L8" s="288"/>
-      <c r="M8" s="288"/>
-      <c r="N8" s="288"/>
+      <c r="B8" s="289"/>
+      <c r="C8" s="289"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="289"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="289"/>
+      <c r="I8" s="289"/>
+      <c r="J8" s="289"/>
+      <c r="K8" s="289"/>
+      <c r="L8" s="289"/>
+      <c r="M8" s="289"/>
+      <c r="N8" s="289"/>
     </row>
     <row r="9" spans="1:14" s="178" customFormat="1">
       <c r="A9" s="216"/>
@@ -7091,10 +7091,10 @@
       <c r="G9" s="226" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="293" t="s">
+      <c r="H9" s="288" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="293"/>
+      <c r="I9" s="288"/>
       <c r="J9" s="227" t="str">
         <f>"ngày "&amp; TEXT(VLOOKUP($H$9,'341'!$B$5:$C$35,2,0),"dd/MM/yy")</f>
         <v>ngày 22/01/10</v>
@@ -7105,102 +7105,102 @@
       <c r="N9" s="216"/>
     </row>
     <row r="10" spans="1:14" s="178" customFormat="1">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="289" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="288"/>
-      <c r="C10" s="288"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="288"/>
-      <c r="F10" s="288"/>
-      <c r="G10" s="288"/>
-      <c r="H10" s="288"/>
-      <c r="I10" s="288"/>
-      <c r="J10" s="288"/>
-      <c r="K10" s="288"/>
-      <c r="L10" s="288"/>
-      <c r="M10" s="288"/>
-      <c r="N10" s="288"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="289"/>
+      <c r="H10" s="289"/>
+      <c r="I10" s="289"/>
+      <c r="J10" s="289"/>
+      <c r="K10" s="289"/>
+      <c r="L10" s="289"/>
+      <c r="M10" s="289"/>
+      <c r="N10" s="289"/>
     </row>
     <row r="11" spans="1:14" s="178" customFormat="1">
-      <c r="C11" s="294"/>
-      <c r="D11" s="294"/>
-      <c r="E11" s="294"/>
-      <c r="F11" s="294"/>
-      <c r="G11" s="294"/>
-      <c r="H11" s="294"/>
-      <c r="I11" s="294"/>
-      <c r="J11" s="294"/>
-      <c r="K11" s="294"/>
-      <c r="L11" s="294"/>
-      <c r="M11" s="294"/>
-      <c r="N11" s="294"/>
+      <c r="C11" s="290"/>
+      <c r="D11" s="290"/>
+      <c r="E11" s="290"/>
+      <c r="F11" s="290"/>
+      <c r="G11" s="290"/>
+      <c r="H11" s="290"/>
+      <c r="I11" s="290"/>
+      <c r="J11" s="290"/>
+      <c r="K11" s="290"/>
+      <c r="L11" s="290"/>
+      <c r="M11" s="290"/>
+      <c r="N11" s="290"/>
     </row>
     <row r="12" spans="1:14" s="178" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="278" t="s">
+      <c r="A12" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="281" t="s">
+      <c r="B12" s="278" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="282"/>
-      <c r="D12" s="278" t="s">
+      <c r="C12" s="280"/>
+      <c r="D12" s="285" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="278" t="s">
+      <c r="E12" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="278" t="s">
+      <c r="F12" s="285" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="281" t="s">
+      <c r="G12" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="297"/>
-      <c r="I12" s="297"/>
-      <c r="J12" s="298"/>
-      <c r="K12" s="281" t="s">
+      <c r="H12" s="293"/>
+      <c r="I12" s="293"/>
+      <c r="J12" s="294"/>
+      <c r="K12" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="297"/>
-      <c r="M12" s="297"/>
-      <c r="N12" s="298"/>
+      <c r="L12" s="293"/>
+      <c r="M12" s="293"/>
+      <c r="N12" s="294"/>
     </row>
     <row r="13" spans="1:14" s="178" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="279"/>
-      <c r="B13" s="284" t="s">
+      <c r="A13" s="286"/>
+      <c r="B13" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="284" t="s">
+      <c r="C13" s="281" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="279"/>
-      <c r="E13" s="279"/>
-      <c r="F13" s="295"/>
-      <c r="G13" s="286" t="s">
+      <c r="D13" s="286"/>
+      <c r="E13" s="286"/>
+      <c r="F13" s="291"/>
+      <c r="G13" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="298"/>
-      <c r="I13" s="286" t="s">
+      <c r="H13" s="294"/>
+      <c r="I13" s="283" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="298"/>
-      <c r="K13" s="286" t="s">
+      <c r="J13" s="294"/>
+      <c r="K13" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="298"/>
-      <c r="M13" s="286" t="s">
+      <c r="L13" s="294"/>
+      <c r="M13" s="283" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="298"/>
+      <c r="N13" s="294"/>
     </row>
     <row r="14" spans="1:14" s="178" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A14" s="280"/>
-      <c r="B14" s="285"/>
-      <c r="C14" s="285"/>
-      <c r="D14" s="280"/>
-      <c r="E14" s="280"/>
-      <c r="F14" s="296"/>
+      <c r="A14" s="287"/>
+      <c r="B14" s="282"/>
+      <c r="C14" s="282"/>
+      <c r="D14" s="287"/>
+      <c r="E14" s="287"/>
+      <c r="F14" s="292"/>
       <c r="G14" s="179" t="s">
         <v>61</v>
       </c>
@@ -7701,6 +7701,12 @@
     <row r="44" s="231" customFormat="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="J2:N3"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A7:N7"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="A10:N10"/>
     <mergeCell ref="C11:N11"/>
@@ -7717,12 +7723,6 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="J2:N3"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A7:N7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:I9">
@@ -7809,17 +7809,17 @@
       <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A5" s="312" t="s">
+      <c r="A5" s="313" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="312"/>
-      <c r="C5" s="312"/>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="312"/>
+      <c r="B5" s="313"/>
+      <c r="C5" s="313"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="313"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
       <c r="R5" s="29"/>
@@ -7827,17 +7827,17 @@
       <c r="T5" s="29"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="299" t="s">
+      <c r="A6" s="311" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="299"/>
-      <c r="C6" s="299"/>
-      <c r="D6" s="299"/>
-      <c r="E6" s="299"/>
-      <c r="F6" s="299"/>
-      <c r="G6" s="299"/>
-      <c r="H6" s="299"/>
-      <c r="I6" s="299"/>
+      <c r="B6" s="311"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="311"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="311"/>
+      <c r="I6" s="311"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="R6" s="29"/>
@@ -7845,17 +7845,17 @@
       <c r="T6" s="29"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="313" t="s">
+      <c r="A7" s="314" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="313"/>
-      <c r="C7" s="313"/>
-      <c r="D7" s="313"/>
-      <c r="E7" s="313"/>
-      <c r="F7" s="313"/>
-      <c r="G7" s="313"/>
-      <c r="H7" s="313"/>
-      <c r="I7" s="313"/>
+      <c r="B7" s="314"/>
+      <c r="C7" s="314"/>
+      <c r="D7" s="314"/>
+      <c r="E7" s="314"/>
+      <c r="F7" s="314"/>
+      <c r="G7" s="314"/>
+      <c r="H7" s="314"/>
+      <c r="I7" s="314"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
       <c r="R7" s="29"/>
@@ -7863,17 +7863,17 @@
       <c r="T7" s="29"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="299" t="s">
+      <c r="A8" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="299"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="299"/>
-      <c r="H8" s="299"/>
-      <c r="I8" s="299"/>
+      <c r="B8" s="311"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
+      <c r="F8" s="311"/>
+      <c r="G8" s="311"/>
+      <c r="H8" s="311"/>
+      <c r="I8" s="311"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
       <c r="R8" s="29"/>
@@ -7881,17 +7881,17 @@
       <c r="T8" s="29"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="299" t="s">
+      <c r="A9" s="311" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="299"/>
-      <c r="C9" s="299"/>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="299"/>
+      <c r="B9" s="311"/>
+      <c r="C9" s="311"/>
+      <c r="D9" s="311"/>
+      <c r="E9" s="311"/>
+      <c r="F9" s="311"/>
+      <c r="G9" s="311"/>
+      <c r="H9" s="311"/>
+      <c r="I9" s="311"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
       <c r="R9" s="29"/>
@@ -7899,15 +7899,15 @@
       <c r="T9" s="29"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1">
-      <c r="A10" s="314"/>
-      <c r="B10" s="314"/>
-      <c r="C10" s="314"/>
-      <c r="D10" s="314"/>
-      <c r="E10" s="314"/>
-      <c r="F10" s="314"/>
-      <c r="G10" s="314"/>
-      <c r="H10" s="314"/>
-      <c r="I10" s="314"/>
+      <c r="A10" s="315"/>
+      <c r="B10" s="315"/>
+      <c r="C10" s="315"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="315"/>
+      <c r="G10" s="315"/>
+      <c r="H10" s="315"/>
+      <c r="I10" s="315"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
       <c r="R10" s="29"/>
@@ -7915,95 +7915,95 @@
       <c r="T10" s="29"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A11" s="300" t="s">
+      <c r="A11" s="308" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="301" t="s">
+      <c r="B11" s="300" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="302"/>
-      <c r="D11" s="300" t="s">
+      <c r="C11" s="301"/>
+      <c r="D11" s="308" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="300" t="s">
+      <c r="E11" s="308" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="301" t="s">
+      <c r="F11" s="300" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="302"/>
-      <c r="H11" s="301" t="s">
+      <c r="G11" s="301"/>
+      <c r="H11" s="300" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="311"/>
-      <c r="O11" s="300" t="s">
+      <c r="I11" s="312"/>
+      <c r="O11" s="308" t="s">
         <v>6</v>
       </c>
       <c r="P11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="300" t="s">
+      <c r="Q11" s="308" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="300" t="s">
+      <c r="R11" s="308" t="s">
         <v>9</v>
       </c>
-      <c r="S11" s="301" t="s">
+      <c r="S11" s="300" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="302"/>
+      <c r="T11" s="301"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A12" s="300"/>
-      <c r="B12" s="303" t="s">
+      <c r="A12" s="308"/>
+      <c r="B12" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="305" t="s">
+      <c r="C12" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="300"/>
-      <c r="E12" s="300"/>
-      <c r="F12" s="305" t="s">
+      <c r="D12" s="308"/>
+      <c r="E12" s="308"/>
+      <c r="F12" s="304" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="307" t="s">
+      <c r="G12" s="306" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="305" t="s">
+      <c r="H12" s="304" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="305" t="s">
+      <c r="I12" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="300"/>
-      <c r="P12" s="303" t="s">
+      <c r="O12" s="308"/>
+      <c r="P12" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="300"/>
-      <c r="R12" s="300"/>
-      <c r="S12" s="305" t="s">
+      <c r="Q12" s="308"/>
+      <c r="R12" s="308"/>
+      <c r="S12" s="304" t="s">
         <v>14</v>
       </c>
-      <c r="T12" s="307" t="s">
+      <c r="T12" s="306" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="18" customHeight="1">
-      <c r="A13" s="300"/>
-      <c r="B13" s="304"/>
-      <c r="C13" s="306"/>
-      <c r="D13" s="300"/>
-      <c r="E13" s="300"/>
-      <c r="F13" s="306"/>
-      <c r="G13" s="308"/>
-      <c r="H13" s="306"/>
-      <c r="I13" s="306"/>
-      <c r="O13" s="300"/>
-      <c r="P13" s="304"/>
-      <c r="Q13" s="300"/>
-      <c r="R13" s="300"/>
-      <c r="S13" s="306"/>
-      <c r="T13" s="308"/>
+      <c r="A13" s="308"/>
+      <c r="B13" s="303"/>
+      <c r="C13" s="305"/>
+      <c r="D13" s="308"/>
+      <c r="E13" s="308"/>
+      <c r="F13" s="305"/>
+      <c r="G13" s="307"/>
+      <c r="H13" s="305"/>
+      <c r="I13" s="305"/>
+      <c r="O13" s="308"/>
+      <c r="P13" s="303"/>
+      <c r="Q13" s="308"/>
+      <c r="R13" s="308"/>
+      <c r="S13" s="305"/>
+      <c r="T13" s="307"/>
     </row>
     <row r="14" spans="1:21" s="28" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="30" t="s">
@@ -14081,13 +14081,13 @@
       <c r="B209" s="28"/>
       <c r="C209" s="28"/>
       <c r="D209" s="29"/>
-      <c r="E209" s="299" t="s">
+      <c r="E209" s="311" t="s">
         <v>80</v>
       </c>
-      <c r="F209" s="299"/>
-      <c r="G209" s="299"/>
-      <c r="H209" s="299"/>
-      <c r="I209" s="299"/>
+      <c r="F209" s="311"/>
+      <c r="G209" s="311"/>
+      <c r="H209" s="311"/>
+      <c r="I209" s="311"/>
       <c r="J209" s="61"/>
       <c r="K209" s="118"/>
       <c r="L209" s="61"/>
@@ -14102,58 +14102,58 @@
       <c r="U209" s="148"/>
     </row>
     <row r="210" spans="1:21" s="1" customFormat="1">
-      <c r="A210" s="299" t="s">
+      <c r="A210" s="311" t="s">
         <v>25</v>
       </c>
-      <c r="B210" s="299"/>
-      <c r="C210" s="299"/>
-      <c r="D210" s="299"/>
-      <c r="E210" s="299" t="s">
+      <c r="B210" s="311"/>
+      <c r="C210" s="311"/>
+      <c r="D210" s="311"/>
+      <c r="E210" s="311" t="s">
         <v>26</v>
       </c>
-      <c r="F210" s="299"/>
-      <c r="G210" s="299"/>
-      <c r="H210" s="299"/>
-      <c r="I210" s="299"/>
+      <c r="F210" s="311"/>
+      <c r="G210" s="311"/>
+      <c r="H210" s="311"/>
+      <c r="I210" s="311"/>
       <c r="J210" s="61"/>
       <c r="K210" s="142"/>
       <c r="L210" s="62"/>
       <c r="M210" s="59"/>
       <c r="N210" s="59"/>
-      <c r="O210" s="315" t="s">
+      <c r="O210" s="299" t="s">
         <v>25</v>
       </c>
-      <c r="P210" s="315"/>
-      <c r="Q210" s="315"/>
+      <c r="P210" s="299"/>
+      <c r="Q210" s="299"/>
       <c r="R210" s="59"/>
       <c r="S210" s="59"/>
       <c r="T210" s="59"/>
       <c r="U210" s="148"/>
     </row>
     <row r="211" spans="1:21" s="1" customFormat="1">
-      <c r="A211" s="299" t="s">
+      <c r="A211" s="311" t="s">
         <v>27</v>
       </c>
-      <c r="B211" s="299"/>
-      <c r="C211" s="299"/>
-      <c r="D211" s="299"/>
-      <c r="E211" s="299" t="s">
+      <c r="B211" s="311"/>
+      <c r="C211" s="311"/>
+      <c r="D211" s="311"/>
+      <c r="E211" s="311" t="s">
         <v>27</v>
       </c>
-      <c r="F211" s="299"/>
-      <c r="G211" s="299"/>
-      <c r="H211" s="299"/>
-      <c r="I211" s="299"/>
+      <c r="F211" s="311"/>
+      <c r="G211" s="311"/>
+      <c r="H211" s="311"/>
+      <c r="I211" s="311"/>
       <c r="J211" s="61"/>
       <c r="K211" s="141"/>
       <c r="L211" s="61"/>
       <c r="M211" s="59"/>
       <c r="N211" s="59"/>
-      <c r="O211" s="315" t="s">
+      <c r="O211" s="299" t="s">
         <v>27</v>
       </c>
-      <c r="P211" s="315"/>
-      <c r="Q211" s="315"/>
+      <c r="P211" s="299"/>
+      <c r="Q211" s="299"/>
       <c r="R211" s="59"/>
       <c r="S211" s="59"/>
       <c r="T211" s="59"/>
@@ -14890,15 +14890,15 @@
   </sheetData>
   <autoFilter ref="A14:N205"/>
   <mergeCells count="34">
-    <mergeCell ref="O210:Q210"/>
-    <mergeCell ref="O211:Q211"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E211:I211"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I4"/>
     <mergeCell ref="A210:D210"/>
@@ -14915,15 +14915,15 @@
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E211:I211"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="O210:Q210"/>
+    <mergeCell ref="O211:Q211"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="F35 S53">
@@ -15054,17 +15054,17 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A5" s="312" t="s">
+      <c r="A5" s="313" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="312"/>
-      <c r="C5" s="312"/>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="312"/>
+      <c r="B5" s="313"/>
+      <c r="C5" s="313"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="313"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="1"/>
@@ -15072,17 +15072,17 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="299" t="s">
+      <c r="A6" s="311" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="299"/>
-      <c r="C6" s="299"/>
-      <c r="D6" s="299"/>
-      <c r="E6" s="299"/>
-      <c r="F6" s="299"/>
-      <c r="G6" s="299"/>
-      <c r="H6" s="299"/>
-      <c r="I6" s="299"/>
+      <c r="B6" s="311"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="311"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="311"/>
+      <c r="I6" s="311"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="Q6" s="1"/>
@@ -15090,17 +15090,17 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="313" t="s">
+      <c r="A7" s="314" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="299"/>
-      <c r="C7" s="299"/>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="299"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="311"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="311"/>
+      <c r="I7" s="311"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="Q7" s="1"/>
@@ -15108,19 +15108,19 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="299" t="s">
+      <c r="A8" s="311" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="299" t="s">
+      <c r="B8" s="311" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="299"/>
-      <c r="H8" s="299"/>
-      <c r="I8" s="299"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
+      <c r="F8" s="311"/>
+      <c r="G8" s="311"/>
+      <c r="H8" s="311"/>
+      <c r="I8" s="311"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="Q8" s="1"/>
@@ -15128,17 +15128,17 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="299" t="s">
+      <c r="A9" s="311" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="313"/>
-      <c r="C9" s="313"/>
-      <c r="D9" s="313"/>
-      <c r="E9" s="313"/>
-      <c r="F9" s="313"/>
-      <c r="G9" s="313"/>
-      <c r="H9" s="313"/>
-      <c r="I9" s="313"/>
+      <c r="B9" s="314"/>
+      <c r="C9" s="314"/>
+      <c r="D9" s="314"/>
+      <c r="E9" s="314"/>
+      <c r="F9" s="314"/>
+      <c r="G9" s="314"/>
+      <c r="H9" s="314"/>
+      <c r="I9" s="314"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="Q9" s="1"/>
@@ -15162,95 +15162,95 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="300" t="s">
+      <c r="A11" s="308" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="301" t="s">
+      <c r="B11" s="300" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="302"/>
-      <c r="D11" s="300" t="s">
+      <c r="C11" s="301"/>
+      <c r="D11" s="308" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="300" t="s">
+      <c r="E11" s="308" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="301" t="s">
+      <c r="F11" s="300" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="302"/>
-      <c r="H11" s="301" t="s">
+      <c r="G11" s="301"/>
+      <c r="H11" s="300" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="311"/>
-      <c r="N11" s="301" t="s">
+      <c r="I11" s="312"/>
+      <c r="N11" s="300" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="302"/>
-      <c r="P11" s="300" t="s">
+      <c r="O11" s="301"/>
+      <c r="P11" s="308" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="300" t="s">
+      <c r="Q11" s="308" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="301" t="s">
+      <c r="R11" s="300" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="302"/>
+      <c r="S11" s="301"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A12" s="300"/>
-      <c r="B12" s="305" t="s">
+      <c r="A12" s="308"/>
+      <c r="B12" s="304" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="305" t="s">
+      <c r="C12" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="300"/>
-      <c r="E12" s="300"/>
-      <c r="F12" s="305" t="s">
+      <c r="D12" s="308"/>
+      <c r="E12" s="308"/>
+      <c r="F12" s="304" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="307" t="s">
+      <c r="G12" s="306" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="305" t="s">
+      <c r="H12" s="304" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="305" t="s">
+      <c r="I12" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="305" t="s">
+      <c r="N12" s="304" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="305" t="s">
+      <c r="O12" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="300"/>
-      <c r="Q12" s="300"/>
-      <c r="R12" s="305" t="s">
+      <c r="P12" s="308"/>
+      <c r="Q12" s="308"/>
+      <c r="R12" s="304" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="307" t="s">
+      <c r="S12" s="306" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A13" s="300"/>
-      <c r="B13" s="306"/>
-      <c r="C13" s="306"/>
-      <c r="D13" s="300"/>
-      <c r="E13" s="300"/>
-      <c r="F13" s="306"/>
-      <c r="G13" s="308"/>
-      <c r="H13" s="306"/>
-      <c r="I13" s="306"/>
-      <c r="N13" s="306"/>
-      <c r="O13" s="306"/>
-      <c r="P13" s="300"/>
-      <c r="Q13" s="300"/>
-      <c r="R13" s="306"/>
-      <c r="S13" s="308"/>
+      <c r="A13" s="308"/>
+      <c r="B13" s="305"/>
+      <c r="C13" s="305"/>
+      <c r="D13" s="308"/>
+      <c r="E13" s="308"/>
+      <c r="F13" s="305"/>
+      <c r="G13" s="307"/>
+      <c r="H13" s="305"/>
+      <c r="I13" s="305"/>
+      <c r="N13" s="305"/>
+      <c r="O13" s="305"/>
+      <c r="P13" s="308"/>
+      <c r="Q13" s="308"/>
+      <c r="R13" s="305"/>
+      <c r="S13" s="307"/>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="9.75" customHeight="1">
       <c r="A14" s="30" t="s">
@@ -19635,13 +19635,13 @@
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="29"/>
-      <c r="E145" s="299" t="s">
+      <c r="E145" s="311" t="s">
         <v>80</v>
       </c>
-      <c r="F145" s="299"/>
-      <c r="G145" s="299"/>
-      <c r="H145" s="299"/>
-      <c r="I145" s="299"/>
+      <c r="F145" s="311"/>
+      <c r="G145" s="311"/>
+      <c r="H145" s="311"/>
+      <c r="I145" s="311"/>
       <c r="J145" s="51"/>
       <c r="L145" s="59"/>
       <c r="M145" s="59"/>
@@ -19653,19 +19653,19 @@
       <c r="S145" s="59"/>
     </row>
     <row r="146" spans="1:19">
-      <c r="A146" s="299" t="s">
+      <c r="A146" s="311" t="s">
         <v>25</v>
       </c>
-      <c r="B146" s="299"/>
-      <c r="C146" s="299"/>
-      <c r="D146" s="299"/>
-      <c r="E146" s="299" t="s">
+      <c r="B146" s="311"/>
+      <c r="C146" s="311"/>
+      <c r="D146" s="311"/>
+      <c r="E146" s="311" t="s">
         <v>26</v>
       </c>
-      <c r="F146" s="299"/>
-      <c r="G146" s="299"/>
-      <c r="H146" s="299"/>
-      <c r="I146" s="299"/>
+      <c r="F146" s="311"/>
+      <c r="G146" s="311"/>
+      <c r="H146" s="311"/>
+      <c r="I146" s="311"/>
       <c r="J146" s="51"/>
       <c r="L146" s="59"/>
       <c r="M146" s="59"/>
@@ -19677,19 +19677,19 @@
       <c r="S146" s="59"/>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="299" t="s">
+      <c r="A147" s="311" t="s">
         <v>27</v>
       </c>
-      <c r="B147" s="299"/>
-      <c r="C147" s="299"/>
-      <c r="D147" s="299"/>
-      <c r="E147" s="299" t="s">
+      <c r="B147" s="311"/>
+      <c r="C147" s="311"/>
+      <c r="D147" s="311"/>
+      <c r="E147" s="311" t="s">
         <v>27</v>
       </c>
-      <c r="F147" s="299"/>
-      <c r="G147" s="299"/>
-      <c r="H147" s="299"/>
-      <c r="I147" s="299"/>
+      <c r="F147" s="311"/>
+      <c r="G147" s="311"/>
+      <c r="H147" s="311"/>
+      <c r="I147" s="311"/>
       <c r="J147" s="61"/>
       <c r="K147" s="206"/>
       <c r="L147" s="61"/>
@@ -19839,6 +19839,23 @@
   </sheetData>
   <autoFilter ref="A14:Q138"/>
   <mergeCells count="33">
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="E147:I147"/>
+    <mergeCell ref="E145:I145"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="E146:I146"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I4"/>
     <mergeCell ref="N11:O11"/>
@@ -19855,23 +19872,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="E147:I147"/>
-    <mergeCell ref="E145:I145"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="E146:I146"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.13" top="0.16" bottom="0.39" header="0.16" footer="0.15"/>
@@ -19941,11 +19941,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
-      <c r="A4" s="299" t="str">
+      <c r="A4" s="311" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","Ngày  "&amp;DAY(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),)))</f>
         <v/>
       </c>
-      <c r="B4" s="299"/>
+      <c r="B4" s="311"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
     </row>
@@ -20766,11 +20766,11 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A4" s="299" t="str">
+      <c r="A4" s="311" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"","Ngày  "&amp;DAY(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),)))</f>
         <v/>
       </c>
-      <c r="B4" s="299"/>
+      <c r="B4" s="311"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
     </row>
